--- a/teaching/traditional_assets/database/data/greece/greece_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/greece/greece_financial_svcs_non_bank_insurance.xlsx
@@ -591,49 +591,49 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.08259999999999999</v>
+        <v>-0.0246</v>
       </c>
       <c r="E2">
-        <v>-0.061</v>
+        <v>-0.218</v>
       </c>
       <c r="F2">
-        <v>0.617</v>
+        <v>0.17</v>
       </c>
       <c r="G2">
-        <v>0.2584097859327217</v>
+        <v>0.451219512195122</v>
       </c>
       <c r="H2">
-        <v>0.2584097859327217</v>
+        <v>0.451219512195122</v>
       </c>
       <c r="I2">
-        <v>0.2972477064220184</v>
+        <v>0.1573170731707317</v>
       </c>
       <c r="J2">
-        <v>0.2205681850325769</v>
+        <v>0.09339789130729897</v>
       </c>
       <c r="K2">
-        <v>7.23</v>
+        <v>3.2</v>
       </c>
       <c r="L2">
-        <v>0.2211009174311926</v>
+        <v>0.09756097560975611</v>
       </c>
       <c r="M2">
-        <v>3.29</v>
+        <v>4.96</v>
       </c>
       <c r="N2">
-        <v>0.01048104491876394</v>
+        <v>0.01725217391304348</v>
       </c>
       <c r="O2">
-        <v>0.4550484094052559</v>
+        <v>1.55</v>
       </c>
       <c r="P2">
-        <v>3.29</v>
+        <v>4.96</v>
       </c>
       <c r="Q2">
-        <v>0.01048104491876394</v>
+        <v>0.01725217391304348</v>
       </c>
       <c r="R2">
-        <v>0.4550484094052559</v>
+        <v>1.55</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,73 +642,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>77.7</v>
+        <v>76.3</v>
       </c>
       <c r="V2">
-        <v>0.2475310608474037</v>
+        <v>0.2653913043478261</v>
       </c>
       <c r="W2">
-        <v>0.05729001584786054</v>
+        <v>0.02714164546225615</v>
       </c>
       <c r="X2">
-        <v>0.03361898908609903</v>
+        <v>0.02277911581982137</v>
       </c>
       <c r="Y2">
-        <v>0.02367102676176151</v>
+        <v>0.004362529642434783</v>
       </c>
       <c r="Z2">
-        <v>0.7956204379562043</v>
+        <v>0.8151701170564404</v>
       </c>
       <c r="AA2">
-        <v>0.1754885559748239</v>
+        <v>0.0761351699897956</v>
       </c>
       <c r="AB2">
-        <v>0.03362112290685316</v>
+        <v>0.02278506421089458</v>
       </c>
       <c r="AC2">
-        <v>0.1418674330679708</v>
+        <v>0.05335010577890101</v>
       </c>
       <c r="AD2">
-        <v>0.037</v>
+        <v>0.107</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.037</v>
+        <v>0.107</v>
       </c>
       <c r="AG2">
-        <v>-77.663</v>
+        <v>-76.193</v>
       </c>
       <c r="AH2">
-        <v>0.0001178580415815912</v>
+        <v>0.0003720354511538314</v>
       </c>
       <c r="AI2">
-        <v>0.0003137268202514902</v>
+        <v>0.0008857102651336429</v>
       </c>
       <c r="AJ2">
-        <v>-0.3287503650994553</v>
+        <v>-0.3605796305848836</v>
       </c>
       <c r="AK2">
-        <v>-1.930138926858364</v>
+        <v>-1.711932954366729</v>
       </c>
       <c r="AL2">
-        <v>0.148</v>
+        <v>0.18</v>
       </c>
       <c r="AM2">
-        <v>-0.322</v>
+        <v>-0.114</v>
       </c>
       <c r="AN2">
-        <v>0.002624113475177305</v>
+        <v>0.01059405940594059</v>
       </c>
       <c r="AO2">
-        <v>65.67567567567568</v>
+        <v>28.66666666666667</v>
       </c>
       <c r="AP2">
-        <v>-5.508014184397163</v>
+        <v>-7.543861386138614</v>
       </c>
       <c r="AQ2">
-        <v>-30.18633540372672</v>
+        <v>-45.26315789473685</v>
       </c>
     </row>
     <row r="3">
@@ -728,49 +728,49 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.08259999999999999</v>
+        <v>-0.0246</v>
       </c>
       <c r="E3">
-        <v>-0.061</v>
+        <v>-0.218</v>
       </c>
       <c r="F3">
-        <v>0.617</v>
+        <v>0.17</v>
       </c>
       <c r="G3">
-        <v>0.2584097859327217</v>
+        <v>0.451219512195122</v>
       </c>
       <c r="H3">
-        <v>0.2584097859327217</v>
+        <v>0.451219512195122</v>
       </c>
       <c r="I3">
-        <v>0.2972477064220184</v>
+        <v>0.1573170731707317</v>
       </c>
       <c r="J3">
-        <v>0.2205681850325769</v>
+        <v>0.09339789130729897</v>
       </c>
       <c r="K3">
-        <v>7.23</v>
+        <v>3.2</v>
       </c>
       <c r="L3">
-        <v>0.2211009174311926</v>
+        <v>0.09756097560975611</v>
       </c>
       <c r="M3">
-        <v>3.29</v>
+        <v>4.96</v>
       </c>
       <c r="N3">
-        <v>0.01048104491876394</v>
+        <v>0.01725217391304348</v>
       </c>
       <c r="O3">
-        <v>0.4550484094052559</v>
+        <v>1.55</v>
       </c>
       <c r="P3">
-        <v>3.29</v>
+        <v>4.96</v>
       </c>
       <c r="Q3">
-        <v>0.01048104491876394</v>
+        <v>0.01725217391304348</v>
       </c>
       <c r="R3">
-        <v>0.4550484094052559</v>
+        <v>1.55</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -779,73 +779,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>77.7</v>
+        <v>76.3</v>
       </c>
       <c r="V3">
-        <v>0.2475310608474037</v>
+        <v>0.2653913043478261</v>
       </c>
       <c r="W3">
-        <v>0.05729001584786054</v>
+        <v>0.02714164546225615</v>
       </c>
       <c r="X3">
-        <v>0.03361898908609903</v>
+        <v>0.02277911581982137</v>
       </c>
       <c r="Y3">
-        <v>0.02367102676176151</v>
+        <v>0.004362529642434783</v>
       </c>
       <c r="Z3">
-        <v>0.7956204379562043</v>
+        <v>0.8151701170564404</v>
       </c>
       <c r="AA3">
-        <v>0.1754885559748239</v>
+        <v>0.0761351699897956</v>
       </c>
       <c r="AB3">
-        <v>0.03362112290685316</v>
+        <v>0.02278506421089458</v>
       </c>
       <c r="AC3">
-        <v>0.1418674330679708</v>
+        <v>0.05335010577890101</v>
       </c>
       <c r="AD3">
-        <v>0.037</v>
+        <v>0.107</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.037</v>
+        <v>0.107</v>
       </c>
       <c r="AG3">
-        <v>-77.663</v>
+        <v>-76.193</v>
       </c>
       <c r="AH3">
-        <v>0.0001178580415815912</v>
+        <v>0.0003720354511538314</v>
       </c>
       <c r="AI3">
-        <v>0.0003137268202514902</v>
+        <v>0.0008857102651336429</v>
       </c>
       <c r="AJ3">
-        <v>-0.3287503650994553</v>
+        <v>-0.3605796305848836</v>
       </c>
       <c r="AK3">
-        <v>-1.930138926858364</v>
+        <v>-1.711932954366729</v>
       </c>
       <c r="AL3">
-        <v>0.148</v>
+        <v>0.18</v>
       </c>
       <c r="AM3">
-        <v>-0.322</v>
+        <v>-0.114</v>
       </c>
       <c r="AN3">
-        <v>0.002624113475177305</v>
+        <v>0.01059405940594059</v>
       </c>
       <c r="AO3">
-        <v>65.67567567567568</v>
+        <v>28.66666666666667</v>
       </c>
       <c r="AP3">
-        <v>-5.508014184397163</v>
+        <v>-7.543861386138614</v>
       </c>
       <c r="AQ3">
-        <v>-30.18633540372672</v>
+        <v>-45.26315789473685</v>
       </c>
     </row>
   </sheetData>
